--- a/Zero.Extension.Commerce.RBAC.DB/src/main/resources/plugins/zero-extension-commerce-rbac/modulat/SSM_ZERO-E.SEC.xlsx
+++ b/Zero.Extension.Commerce.RBAC.DB/src/main/resources/plugins/zero-extension-commerce-rbac/modulat/SSM_ZERO-E.SEC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Commerce.RBAC.DB/src/main/resources/plugins/zero-extension-commerce-rbac/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E991C3-EA19-BB49-AC8F-0CD469253D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69F0A87-FE36-1D42-82A4-7D2D8B99248A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="880" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-48480" yWindow="-4360" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>key</t>
   </si>
@@ -339,6 +339,26 @@
   </si>
   <si>
     <t>CODE:config</t>
+  </si>
+  <si>
+    <t>模块配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME_ABBR:config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面配置信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uiContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE:config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -346,25 +366,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -372,7 +392,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,7 +400,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -491,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -521,13 +541,19 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -843,38 +869,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="55.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="54.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="13" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -890,8 +917,9 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -919,8 +947,11 @@
       <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -948,8 +979,11 @@
       <c r="I4" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>68</v>
       </c>
@@ -975,33 +1009,37 @@
       <c r="I5" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="J5" s="8" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1018,43 +1056,46 @@
         <v>26</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
@@ -1071,43 +1112,46 @@
         <v>30</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="N14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -1124,36 +1168,36 @@
       <c r="E15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>1005</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="b">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="8" t="s">
+      <c r="O15" s="8"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="R15" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
@@ -1170,36 +1214,37 @@
       <c r="E16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="8"/>
+      <c r="G16" s="5">
         <v>1010</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="b">
+      <c r="I16" s="8"/>
+      <c r="J16" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="8" t="s">
+      <c r="O16" s="8"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="R16" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17" s="7" t="s">
         <v>71</v>
       </c>
@@ -1216,36 +1261,39 @@
       <c r="E17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="5">
         <v>1015</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8" t="b">
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="8" t="s">
+      <c r="O17" s="8"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="R17" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
@@ -1262,39 +1310,40 @@
       <c r="E18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="8"/>
+      <c r="G18" s="5">
         <v>1020</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8" t="b">
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="b">
         <v>1</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="8" t="s">
+      <c r="O18" s="8"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="R18" s="8" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C12:Q12"/>
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="C12:R12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
